--- a/non_explainable_medium_disc/val/discriminated_instances.xlsx
+++ b/non_explainable_medium_disc/val/discriminated_instances.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -452,7 +452,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -460,7 +460,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -476,7 +476,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -484,7 +484,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>102</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -492,7 +492,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>122</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -500,7 +500,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>136</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -508,7 +508,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>145</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
@@ -516,7 +516,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>149</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
@@ -524,7 +524,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>151</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
@@ -532,7 +532,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>163</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>183</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15">
@@ -548,7 +548,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>194</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16">
@@ -556,7 +556,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>195</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17">
@@ -564,7 +564,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>196</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18">
@@ -572,7 +572,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>198</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
@@ -580,7 +580,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>222</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
@@ -588,7 +588,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>226</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21">
@@ -596,7 +596,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>229</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22">
@@ -604,7 +604,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>232</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23">
@@ -612,7 +612,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>253</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24">
@@ -620,7 +620,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>275</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +628,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>276</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26">
@@ -636,7 +636,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>282</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27">
@@ -644,7 +644,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>287</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28">
@@ -652,7 +652,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>301</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29">
@@ -660,7 +660,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>320</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30">
@@ -668,7 +668,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>330</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31">
@@ -676,7 +676,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>346</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32">
@@ -684,7 +684,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>362</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33">
@@ -692,7 +692,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>363</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34">
@@ -700,7 +700,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>371</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35">
@@ -708,7 +708,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>377</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36">
@@ -716,7 +716,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>380</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37">
@@ -724,7 +724,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>384</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38">
@@ -732,7 +732,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>404</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39">
@@ -740,7 +740,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>409</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40">
@@ -748,7 +748,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>413</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41">
@@ -756,7 +756,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>418</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42">
@@ -764,7 +764,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>420</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43">
@@ -772,7 +772,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>422</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44">
@@ -780,7 +780,223 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
         <v>449</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
